--- a/flights.xlsx
+++ b/flights.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\Python workspace\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA7A20DE-A2FB-4BF8-9257-26F37B03A1DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE9D9DB-0B56-440E-8D42-D3C09FC18DB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>Flight Number</t>
   </si>
@@ -33,12 +33,15 @@
   <si>
     <t>Delay</t>
   </si>
+  <si>
+    <t>included_in_stage</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -55,6 +58,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -77,12 +86,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -303,22 +315,23 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:D1000"/>
+  <dimension ref="A1:E1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="14" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="12.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -331,8 +344,11 @@
       <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -345,8 +361,11 @@
       <c r="D2" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E2" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -359,8 +378,11 @@
       <c r="D3" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E3" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -373,8 +395,11 @@
       <c r="D4" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E4" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -387,8 +412,11 @@
       <c r="D5" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E5" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -401,8 +429,11 @@
       <c r="D6" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E6" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -415,8 +446,11 @@
       <c r="D7" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E7" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -429,8 +463,11 @@
       <c r="D8" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E8" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -443,8 +480,11 @@
       <c r="D9" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E9" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -457,8 +497,11 @@
       <c r="D10" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E10" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -471,8 +514,11 @@
       <c r="D11" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E11" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -485,8 +531,11 @@
       <c r="D12" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E12" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -499,8 +548,11 @@
       <c r="D13" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E13" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -513,8 +565,11 @@
       <c r="D14" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E14" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -527,8 +582,11 @@
       <c r="D15" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E15" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
@@ -541,8 +599,11 @@
       <c r="D16" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E16" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>16</v>
       </c>
@@ -555,8 +616,11 @@
       <c r="D17" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E17" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>17</v>
       </c>
@@ -569,8 +633,11 @@
       <c r="D18" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E18" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>18</v>
       </c>
@@ -583,8 +650,11 @@
       <c r="D19" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E19" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>19</v>
       </c>
@@ -597,8 +667,11 @@
       <c r="D20" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E20" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>20</v>
       </c>
@@ -611,8 +684,11 @@
       <c r="D21" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E21" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>21</v>
       </c>
@@ -625,8 +701,11 @@
       <c r="D22" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E22" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>22</v>
       </c>
@@ -639,8 +718,11 @@
       <c r="D23" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E23" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>23</v>
       </c>
@@ -653,8 +735,11 @@
       <c r="D24" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E24" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>24</v>
       </c>
@@ -667,8 +752,11 @@
       <c r="D25" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E25" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>25</v>
       </c>
@@ -681,8 +769,11 @@
       <c r="D26" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E26" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>26</v>
       </c>
@@ -695,8 +786,11 @@
       <c r="D27" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E27" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>27</v>
       </c>
@@ -709,8 +803,11 @@
       <c r="D28" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E28" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>28</v>
       </c>
@@ -723,8 +820,11 @@
       <c r="D29" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="30" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E29" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>29</v>
       </c>
@@ -737,8 +837,11 @@
       <c r="D30" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="31" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E30" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>30</v>
       </c>
@@ -751,8 +854,11 @@
       <c r="D31" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="32" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E31" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>31</v>
       </c>
@@ -765,8 +871,11 @@
       <c r="D32" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="33" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E32" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>32</v>
       </c>
@@ -779,8 +888,11 @@
       <c r="D33" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E33" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>33</v>
       </c>
@@ -793,8 +905,11 @@
       <c r="D34" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E34" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>34</v>
       </c>
@@ -807,8 +922,11 @@
       <c r="D35" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>35</v>
       </c>
@@ -821,8 +939,11 @@
       <c r="D36" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="37" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E36" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>36</v>
       </c>
@@ -835,8 +956,11 @@
       <c r="D37" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>37</v>
       </c>
@@ -849,8 +973,11 @@
       <c r="D38" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E38" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>38</v>
       </c>
@@ -863,8 +990,11 @@
       <c r="D39" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="40" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E39" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>39</v>
       </c>
@@ -877,8 +1007,11 @@
       <c r="D40" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="41" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E40" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>40</v>
       </c>
@@ -891,8 +1024,11 @@
       <c r="D41" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E41" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>41</v>
       </c>
@@ -905,8 +1041,11 @@
       <c r="D42" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42</v>
       </c>
@@ -919,8 +1058,11 @@
       <c r="D43" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="44" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E43" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>43</v>
       </c>
@@ -933,8 +1075,11 @@
       <c r="D44" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="45" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E44" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>44</v>
       </c>
@@ -947,8 +1092,11 @@
       <c r="D45" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E45" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>45</v>
       </c>
@@ -961,8 +1109,11 @@
       <c r="D46" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="47" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E46" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>46</v>
       </c>
@@ -975,8 +1126,11 @@
       <c r="D47" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E47" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>47</v>
       </c>
@@ -989,8 +1143,11 @@
       <c r="D48" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E48" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>48</v>
       </c>
@@ -1003,8 +1160,11 @@
       <c r="D49" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E49" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>49</v>
       </c>
@@ -1017,8 +1177,11 @@
       <c r="D50" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E50" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>50</v>
       </c>
@@ -1031,8 +1194,11 @@
       <c r="D51" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E51" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>51</v>
       </c>
@@ -1045,8 +1211,11 @@
       <c r="D52" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E52" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>52</v>
       </c>
@@ -1059,8 +1228,11 @@
       <c r="D53" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E53" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>53</v>
       </c>
@@ -1073,8 +1245,11 @@
       <c r="D54" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E54" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>54</v>
       </c>
@@ -1087,8 +1262,11 @@
       <c r="D55" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E55" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>55</v>
       </c>
@@ -1101,8 +1279,11 @@
       <c r="D56" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E56" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>56</v>
       </c>
@@ -1115,8 +1296,11 @@
       <c r="D57" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E57" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>57</v>
       </c>
@@ -1129,8 +1313,11 @@
       <c r="D58" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E58" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>58</v>
       </c>
@@ -1143,8 +1330,11 @@
       <c r="D59" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E59" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>59</v>
       </c>
@@ -1157,8 +1347,11 @@
       <c r="D60" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E60" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>60</v>
       </c>
@@ -1171,8 +1364,11 @@
       <c r="D61" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>61</v>
       </c>
@@ -1185,8 +1381,11 @@
       <c r="D62" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E62" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>62</v>
       </c>
@@ -1199,8 +1398,11 @@
       <c r="D63" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E63" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>63</v>
       </c>
@@ -1213,8 +1415,11 @@
       <c r="D64" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E64" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>64</v>
       </c>
@@ -1227,8 +1432,11 @@
       <c r="D65" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E65" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>65</v>
       </c>
@@ -1241,8 +1449,11 @@
       <c r="D66" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E66" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>66</v>
       </c>
@@ -1255,8 +1466,11 @@
       <c r="D67" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E67" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>67</v>
       </c>
@@ -1269,8 +1483,11 @@
       <c r="D68" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E68" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>68</v>
       </c>
@@ -1283,8 +1500,11 @@
       <c r="D69" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E69" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>69</v>
       </c>
@@ -1297,8 +1517,11 @@
       <c r="D70" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E70" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>70</v>
       </c>
@@ -1311,8 +1534,11 @@
       <c r="D71" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E71" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>71</v>
       </c>
@@ -1325,8 +1551,11 @@
       <c r="D72" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E72" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>72</v>
       </c>
@@ -1339,8 +1568,11 @@
       <c r="D73" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E73" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>73</v>
       </c>
@@ -1353,8 +1585,11 @@
       <c r="D74" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E74" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>74</v>
       </c>
@@ -1367,8 +1602,11 @@
       <c r="D75" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E75" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>75</v>
       </c>
@@ -1381,8 +1619,11 @@
       <c r="D76" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E76" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>76</v>
       </c>
@@ -1395,8 +1636,11 @@
       <c r="D77" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E77" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>77</v>
       </c>
@@ -1409,8 +1653,11 @@
       <c r="D78" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E78" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>78</v>
       </c>
@@ -1423,8 +1670,11 @@
       <c r="D79" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E79" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>79</v>
       </c>
@@ -1437,8 +1687,11 @@
       <c r="D80" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E80" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>80</v>
       </c>
@@ -1451,8 +1704,11 @@
       <c r="D81" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E81" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>81</v>
       </c>
@@ -1465,8 +1721,11 @@
       <c r="D82" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E82" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>82</v>
       </c>
@@ -1479,8 +1738,11 @@
       <c r="D83" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E83" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>83</v>
       </c>
@@ -1493,8 +1755,11 @@
       <c r="D84" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E84" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>84</v>
       </c>
@@ -1507,8 +1772,11 @@
       <c r="D85" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E85" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>85</v>
       </c>
@@ -1521,8 +1789,11 @@
       <c r="D86" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E86" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>86</v>
       </c>
@@ -1535,8 +1806,11 @@
       <c r="D87" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E87" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>87</v>
       </c>
@@ -1549,8 +1823,11 @@
       <c r="D88" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E88" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>88</v>
       </c>
@@ -1563,8 +1840,11 @@
       <c r="D89" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E89" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>89</v>
       </c>
@@ -1577,8 +1857,11 @@
       <c r="D90" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E90" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>90</v>
       </c>
@@ -1591,8 +1874,11 @@
       <c r="D91" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E91" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>91</v>
       </c>
@@ -1605,8 +1891,11 @@
       <c r="D92" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E92" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>92</v>
       </c>
@@ -1619,8 +1908,11 @@
       <c r="D93" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E93" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>93</v>
       </c>
@@ -1633,8 +1925,11 @@
       <c r="D94" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E94" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>94</v>
       </c>
@@ -1647,8 +1942,11 @@
       <c r="D95" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>95</v>
       </c>
@@ -1661,8 +1959,11 @@
       <c r="D96" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E96" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>96</v>
       </c>
@@ -1675,8 +1976,11 @@
       <c r="D97" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E97" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>97</v>
       </c>
@@ -1689,8 +1993,11 @@
       <c r="D98" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E98" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>98</v>
       </c>
@@ -1703,8 +2010,11 @@
       <c r="D99" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E99" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>99</v>
       </c>
@@ -1717,8 +2027,11 @@
       <c r="D100" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E100" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>100</v>
       </c>
@@ -1731,8 +2044,11 @@
       <c r="D101" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E101" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>101</v>
       </c>
@@ -1745,8 +2061,11 @@
       <c r="D102" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E102" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>102</v>
       </c>
@@ -1759,8 +2078,11 @@
       <c r="D103" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E103" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>103</v>
       </c>
@@ -1773,8 +2095,11 @@
       <c r="D104" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E104" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>104</v>
       </c>
@@ -1787,8 +2112,11 @@
       <c r="D105" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E105" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>105</v>
       </c>
@@ -1801,8 +2129,11 @@
       <c r="D106" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E106" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>106</v>
       </c>
@@ -1815,8 +2146,11 @@
       <c r="D107" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E107" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>107</v>
       </c>
@@ -1829,8 +2163,11 @@
       <c r="D108" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E108" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>108</v>
       </c>
@@ -1843,8 +2180,11 @@
       <c r="D109" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E109" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>109</v>
       </c>
@@ -1857,8 +2197,11 @@
       <c r="D110" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E110" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>110</v>
       </c>
@@ -1871,8 +2214,11 @@
       <c r="D111" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E111" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>111</v>
       </c>
@@ -1885,8 +2231,11 @@
       <c r="D112" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E112" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>112</v>
       </c>
@@ -1899,8 +2248,11 @@
       <c r="D113" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E113" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>113</v>
       </c>
@@ -1913,8 +2265,11 @@
       <c r="D114" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E114" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>114</v>
       </c>
@@ -1927,8 +2282,11 @@
       <c r="D115" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E115" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>115</v>
       </c>
@@ -1941,8 +2299,11 @@
       <c r="D116" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E116" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>116</v>
       </c>
@@ -1955,8 +2316,11 @@
       <c r="D117" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E117" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>117</v>
       </c>
@@ -1969,8 +2333,11 @@
       <c r="D118" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E118" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>118</v>
       </c>
@@ -1983,8 +2350,11 @@
       <c r="D119" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E119" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>119</v>
       </c>
@@ -1997,8 +2367,11 @@
       <c r="D120" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E120" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>120</v>
       </c>
@@ -2011,8 +2384,11 @@
       <c r="D121" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E121" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>121</v>
       </c>
@@ -2025,8 +2401,11 @@
       <c r="D122" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E122" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>122</v>
       </c>
@@ -2039,8 +2418,11 @@
       <c r="D123" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E123" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>123</v>
       </c>
@@ -2053,8 +2435,11 @@
       <c r="D124" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E124" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>124</v>
       </c>
@@ -2067,8 +2452,11 @@
       <c r="D125" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E125" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>125</v>
       </c>
@@ -2081,8 +2469,11 @@
       <c r="D126" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E126" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>126</v>
       </c>
@@ -2095,8 +2486,11 @@
       <c r="D127" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E127" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>127</v>
       </c>
@@ -2109,8 +2503,11 @@
       <c r="D128" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E128" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>128</v>
       </c>
@@ -2123,8 +2520,11 @@
       <c r="D129" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E129" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>129</v>
       </c>
@@ -2137,8 +2537,11 @@
       <c r="D130" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E130" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>130</v>
       </c>
@@ -2151,8 +2554,11 @@
       <c r="D131" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E131" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>131</v>
       </c>
@@ -2165,8 +2571,11 @@
       <c r="D132" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E132" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>132</v>
       </c>
@@ -2179,8 +2588,11 @@
       <c r="D133" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E133" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>133</v>
       </c>
@@ -2193,8 +2605,11 @@
       <c r="D134" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E134" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>134</v>
       </c>
@@ -2207,8 +2622,11 @@
       <c r="D135" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E135" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>135</v>
       </c>
@@ -2221,8 +2639,11 @@
       <c r="D136" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E136" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>136</v>
       </c>
@@ -2235,8 +2656,11 @@
       <c r="D137" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E137" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>137</v>
       </c>
@@ -2249,8 +2673,11 @@
       <c r="D138" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E138" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>138</v>
       </c>
@@ -2263,8 +2690,11 @@
       <c r="D139" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E139" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>139</v>
       </c>
@@ -2277,8 +2707,11 @@
       <c r="D140" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E140" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>140</v>
       </c>
@@ -2291,8 +2724,11 @@
       <c r="D141" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E141" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>141</v>
       </c>
@@ -2305,8 +2741,11 @@
       <c r="D142" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E142" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>142</v>
       </c>
@@ -2319,8 +2758,11 @@
       <c r="D143" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E143" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>143</v>
       </c>
@@ -2333,8 +2775,11 @@
       <c r="D144" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E144" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>144</v>
       </c>
@@ -2347,8 +2792,11 @@
       <c r="D145" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E145" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>145</v>
       </c>
@@ -2361,8 +2809,11 @@
       <c r="D146" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E146" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>146</v>
       </c>
@@ -2375,8 +2826,11 @@
       <c r="D147" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E147" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>147</v>
       </c>
@@ -2389,8 +2843,11 @@
       <c r="D148" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E148" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>148</v>
       </c>
@@ -2403,8 +2860,11 @@
       <c r="D149" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E149" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>149</v>
       </c>
@@ -2417,8 +2877,11 @@
       <c r="D150" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E150" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>150</v>
       </c>
@@ -2431,8 +2894,11 @@
       <c r="D151" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E151" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>151</v>
       </c>
@@ -2445,8 +2911,11 @@
       <c r="D152" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E152" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>152</v>
       </c>
@@ -2459,8 +2928,11 @@
       <c r="D153" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E153" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>1363</v>
       </c>
@@ -2473,8 +2945,11 @@
       <c r="D154" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E154" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>1364</v>
       </c>
@@ -2487,8 +2962,11 @@
       <c r="D155" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E155" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>1374</v>
       </c>
@@ -2501,8 +2979,11 @@
       <c r="D156" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E156" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>1375</v>
       </c>
@@ -2515,8 +2996,11 @@
       <c r="D157" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E157" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>1377</v>
       </c>
@@ -2529,8 +3013,11 @@
       <c r="D158" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E158" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>1378</v>
       </c>
@@ -2543,8 +3030,11 @@
       <c r="D159" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E159" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>1379</v>
       </c>
@@ -2557,8 +3047,11 @@
       <c r="D160" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E160" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>1380</v>
       </c>
@@ -2571,8 +3064,11 @@
       <c r="D161" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E161" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>2517</v>
       </c>
@@ -2585,8 +3081,11 @@
       <c r="D162" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E162" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>2518</v>
       </c>
@@ -2599,8 +3098,11 @@
       <c r="D163" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E163" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>2519</v>
       </c>
@@ -2613,8 +3115,11 @@
       <c r="D164" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E164" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>2520</v>
       </c>
@@ -2627,8 +3132,11 @@
       <c r="D165" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E165" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>2521</v>
       </c>
@@ -2641,8 +3149,11 @@
       <c r="D166" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E166" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>2522</v>
       </c>
@@ -2655,8 +3166,11 @@
       <c r="D167" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E167" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>2523</v>
       </c>
@@ -2669,8 +3183,11 @@
       <c r="D168" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E168" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>2524</v>
       </c>
@@ -2683,8 +3200,11 @@
       <c r="D169" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E169" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>2525</v>
       </c>
@@ -2697,8 +3217,11 @@
       <c r="D170" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E170" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>2526</v>
       </c>
@@ -2711,8 +3234,11 @@
       <c r="D171" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E171" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>2533</v>
       </c>
@@ -2725,8 +3251,11 @@
       <c r="D172" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E172" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>2534</v>
       </c>
@@ -2739,8 +3268,11 @@
       <c r="D173" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E173" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>2543</v>
       </c>
@@ -2753,8 +3285,11 @@
       <c r="D174" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E174" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>2544</v>
       </c>
@@ -2767,8 +3302,11 @@
       <c r="D175" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E175" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>2573</v>
       </c>
@@ -2781,8 +3319,11 @@
       <c r="D176" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E176" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>2574</v>
       </c>
@@ -2795,8 +3336,11 @@
       <c r="D177" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E177" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>2581</v>
       </c>
@@ -2809,8 +3353,11 @@
       <c r="D178" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E178" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>2582</v>
       </c>
@@ -2823,8 +3370,11 @@
       <c r="D179" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E179" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>2583</v>
       </c>
@@ -2837,8 +3387,11 @@
       <c r="D180" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E180" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>2584</v>
       </c>
@@ -2851,8 +3404,11 @@
       <c r="D181" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E181" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>2585</v>
       </c>
@@ -2865,8 +3421,11 @@
       <c r="D182" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E182" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>2586</v>
       </c>
@@ -2879,8 +3438,11 @@
       <c r="D183" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E183" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>2587</v>
       </c>
@@ -2893,8 +3455,11 @@
       <c r="D184" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E184" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>2588</v>
       </c>
@@ -2907,8 +3472,11 @@
       <c r="D185" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E185" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>2593</v>
       </c>
@@ -2921,8 +3489,11 @@
       <c r="D186" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E186" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>2595</v>
       </c>
@@ -2935,8 +3506,11 @@
       <c r="D187" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E187" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>2596</v>
       </c>
@@ -2949,8 +3523,11 @@
       <c r="D188" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E188" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>2597</v>
       </c>
@@ -2963,8 +3540,11 @@
       <c r="D189" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E189" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>2598</v>
       </c>
@@ -2977,8 +3557,11 @@
       <c r="D190" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E190" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>2599</v>
       </c>
@@ -2991,8 +3574,11 @@
       <c r="D191" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E191" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>2600</v>
       </c>
@@ -3005,8 +3591,11 @@
       <c r="D192" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E192" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>2601</v>
       </c>
@@ -3019,8 +3608,11 @@
       <c r="D193" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E193" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>2602</v>
       </c>
@@ -3033,8 +3625,11 @@
       <c r="D194" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E194" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>2603</v>
       </c>
@@ -3047,8 +3642,11 @@
       <c r="D195" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E195" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>2604</v>
       </c>
@@ -3061,8 +3659,11 @@
       <c r="D196" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E196" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>2605</v>
       </c>
@@ -3075,8 +3676,11 @@
       <c r="D197" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E197" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>2606</v>
       </c>
@@ -3089,8 +3693,11 @@
       <c r="D198" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E198" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>2609</v>
       </c>
@@ -3103,8 +3710,11 @@
       <c r="D199" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E199" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>2610</v>
       </c>
@@ -3117,8 +3727,11 @@
       <c r="D200" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E200" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>2613</v>
       </c>
@@ -3131,8 +3744,11 @@
       <c r="D201" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E201" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>2614</v>
       </c>
@@ -3145,8 +3761,11 @@
       <c r="D202" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E202" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>2619</v>
       </c>
@@ -3159,8 +3778,11 @@
       <c r="D203" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E203" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>2620</v>
       </c>
@@ -3173,8 +3795,11 @@
       <c r="D204" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E204" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>2623</v>
       </c>
@@ -3187,8 +3812,11 @@
       <c r="D205" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E205" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>2624</v>
       </c>
@@ -3201,8 +3829,11 @@
       <c r="D206" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E206" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>2625</v>
       </c>
@@ -3215,8 +3846,11 @@
       <c r="D207" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E207" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>2626</v>
       </c>
@@ -3229,8 +3863,11 @@
       <c r="D208" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E208" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>2629</v>
       </c>
@@ -3243,8 +3880,11 @@
       <c r="D209" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E209" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>2630</v>
       </c>
@@ -3257,8 +3897,11 @@
       <c r="D210" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E210" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>2633</v>
       </c>
@@ -3271,8 +3914,11 @@
       <c r="D211" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E211" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>2634</v>
       </c>
@@ -3285,8 +3931,11 @@
       <c r="D212" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E212" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>2643</v>
       </c>
@@ -3299,8 +3948,11 @@
       <c r="D213" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E213" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>2644</v>
       </c>
@@ -3313,8 +3965,11 @@
       <c r="D214" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E214" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>2647</v>
       </c>
@@ -3327,8 +3982,11 @@
       <c r="D215" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E215" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>2648</v>
       </c>
@@ -3341,8 +3999,11 @@
       <c r="D216" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E216" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>2653</v>
       </c>
@@ -3355,8 +4016,11 @@
       <c r="D217" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E217" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>2654</v>
       </c>
@@ -3369,8 +4033,11 @@
       <c r="D218" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E218" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>2655</v>
       </c>
@@ -3383,8 +4050,11 @@
       <c r="D219" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E219" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>2656</v>
       </c>
@@ -3397,8 +4067,11 @@
       <c r="D220" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E220" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>2657</v>
       </c>
@@ -3411,8 +4084,11 @@
       <c r="D221" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E221" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>2658</v>
       </c>
@@ -3425,8 +4101,11 @@
       <c r="D222" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E222" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>2661</v>
       </c>
@@ -3439,8 +4118,11 @@
       <c r="D223" s="2">
         <v>90</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E223" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>2662</v>
       </c>
@@ -3453,8 +4135,11 @@
       <c r="D224" s="2">
         <v>84</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E224" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>2663</v>
       </c>
@@ -3467,8 +4152,11 @@
       <c r="D225" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E225" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>2673</v>
       </c>
@@ -3481,8 +4169,11 @@
       <c r="D226" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E226" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>2674</v>
       </c>
@@ -3495,8 +4186,11 @@
       <c r="D227" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E227" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>2793</v>
       </c>
@@ -3509,8 +4203,11 @@
       <c r="D228" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E228" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>2794</v>
       </c>
@@ -3523,8 +4220,11 @@
       <c r="D229" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E229" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>2795</v>
       </c>
@@ -3537,8 +4237,11 @@
       <c r="D230" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E230" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>2796</v>
       </c>
@@ -3551,8 +4254,11 @@
       <c r="D231" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E231" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>2797</v>
       </c>
@@ -3565,8 +4271,11 @@
       <c r="D232" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E232" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>2798</v>
       </c>
@@ -3579,8 +4288,11 @@
       <c r="D233" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E233" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>2866</v>
       </c>
@@ -3593,8 +4305,11 @@
       <c r="D234" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E234" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>2867</v>
       </c>
@@ -3607,8 +4322,11 @@
       <c r="D235" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E235" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>2868</v>
       </c>
@@ -3621,8 +4339,11 @@
       <c r="D236" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E236" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>2869</v>
       </c>
@@ -3635,8 +4356,11 @@
       <c r="D237" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E237" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>2870</v>
       </c>
@@ -3649,8 +4373,11 @@
       <c r="D238" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E238" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>2872</v>
       </c>
@@ -3663,8 +4390,11 @@
       <c r="D239" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E239" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>2873</v>
       </c>
@@ -3677,8 +4407,11 @@
       <c r="D240" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E240" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>2874</v>
       </c>
@@ -3691,8 +4424,11 @@
       <c r="D241" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E241" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>2877</v>
       </c>
@@ -3705,8 +4441,11 @@
       <c r="D242" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E242" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>2878</v>
       </c>
@@ -3719,8 +4458,11 @@
       <c r="D243" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E243" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>2879</v>
       </c>
@@ -3733,8 +4475,11 @@
       <c r="D244" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E244" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>2883</v>
       </c>
@@ -3747,8 +4492,11 @@
       <c r="D245" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E245" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>2886</v>
       </c>
@@ -3761,8 +4509,11 @@
       <c r="D246" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E246" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>2888</v>
       </c>
@@ -3775,8 +4526,11 @@
       <c r="D247" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E247" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>2889</v>
       </c>
@@ -3789,8 +4543,11 @@
       <c r="D248" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E248" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>2892</v>
       </c>
@@ -3803,8 +4560,11 @@
       <c r="D249" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E249" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>2895</v>
       </c>
@@ -3817,8 +4577,11 @@
       <c r="D250" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E250" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>2896</v>
       </c>
@@ -3831,8 +4594,11 @@
       <c r="D251" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E251" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>2899</v>
       </c>
@@ -3845,8 +4611,11 @@
       <c r="D252" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E252" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>2900</v>
       </c>
@@ -3859,8 +4628,11 @@
       <c r="D253" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E253" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>2903</v>
       </c>
@@ -3873,8 +4645,11 @@
       <c r="D254" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E254" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>2907</v>
       </c>
@@ -3887,8 +4662,11 @@
       <c r="D255" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E255" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>2908</v>
       </c>
@@ -3901,8 +4679,11 @@
       <c r="D256" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E256" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>2912</v>
       </c>
@@ -3915,8 +4696,11 @@
       <c r="D257" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E257" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>2919</v>
       </c>
@@ -3929,8 +4713,11 @@
       <c r="D258" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E258" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>2965</v>
       </c>
@@ -3943,8 +4730,11 @@
       <c r="D259" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E259" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>2966</v>
       </c>
@@ -3957,8 +4747,11 @@
       <c r="D260" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E260" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>2967</v>
       </c>
@@ -3971,8 +4764,11 @@
       <c r="D261" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E261" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>2968</v>
       </c>
@@ -3985,8 +4781,11 @@
       <c r="D262" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E262" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>2969</v>
       </c>
@@ -3999,8 +4798,11 @@
       <c r="D263" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E263" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>2970</v>
       </c>
@@ -4013,8 +4815,11 @@
       <c r="D264" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E264" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>2972</v>
       </c>
@@ -4027,8 +4832,11 @@
       <c r="D265" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E265" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>2973</v>
       </c>
@@ -4041,8 +4849,11 @@
       <c r="D266" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E266" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>2974</v>
       </c>
@@ -4055,8 +4866,11 @@
       <c r="D267" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E267" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>2975</v>
       </c>
@@ -4069,8 +4883,11 @@
       <c r="D268" s="2">
         <v>39</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E268" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>2976</v>
       </c>
@@ -4083,8 +4900,11 @@
       <c r="D269" s="2">
         <v>45</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E269" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>2977</v>
       </c>
@@ -4097,8 +4917,11 @@
       <c r="D270" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E270" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>2978</v>
       </c>
@@ -4111,8 +4934,11 @@
       <c r="D271" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E271" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>2980</v>
       </c>
@@ -4125,8 +4951,11 @@
       <c r="D272" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E272" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>2981</v>
       </c>
@@ -4139,8 +4968,11 @@
       <c r="D273" s="2">
         <v>35</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E273" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>2982</v>
       </c>
@@ -4153,8 +4985,11 @@
       <c r="D274" s="2">
         <v>48</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E274" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>2983</v>
       </c>
@@ -4167,8 +5002,11 @@
       <c r="D275" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E275" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>2984</v>
       </c>
@@ -4181,8 +5019,11 @@
       <c r="D276" s="2">
         <v>42</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E276" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>2985</v>
       </c>
@@ -4195,8 +5036,11 @@
       <c r="D277" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E277" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>2986</v>
       </c>
@@ -4209,8 +5053,11 @@
       <c r="D278" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E278" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>2988</v>
       </c>
@@ -4223,8 +5070,11 @@
       <c r="D279" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E279" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>2989</v>
       </c>
@@ -4237,8 +5087,11 @@
       <c r="D280" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E280" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>2991</v>
       </c>
@@ -4251,8 +5104,11 @@
       <c r="D281" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E281" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>2992</v>
       </c>
@@ -4265,8 +5121,11 @@
       <c r="D282" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E282" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>2995</v>
       </c>
@@ -4279,8 +5138,11 @@
       <c r="D283" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E283" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>2996</v>
       </c>
@@ -4293,8 +5155,11 @@
       <c r="D284" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E284" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>2999</v>
       </c>
@@ -4307,8 +5172,11 @@
       <c r="D285" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E285" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>3000</v>
       </c>
@@ -4321,8 +5189,11 @@
       <c r="D286" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E286" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>3003</v>
       </c>
@@ -4335,8 +5206,11 @@
       <c r="D287" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E287" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>3004</v>
       </c>
@@ -4349,8 +5223,11 @@
       <c r="D288" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E288" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>3007</v>
       </c>
@@ -4363,8 +5240,11 @@
       <c r="D289" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E289" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>3008</v>
       </c>
@@ -4377,8 +5257,11 @@
       <c r="D290" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E290" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>3011</v>
       </c>
@@ -4391,8 +5274,11 @@
       <c r="D291" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E291" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>3063</v>
       </c>
@@ -4405,8 +5291,11 @@
       <c r="D292" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E292" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>3064</v>
       </c>
@@ -4419,8 +5308,11 @@
       <c r="D293" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E293" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>3065</v>
       </c>
@@ -4433,8 +5325,11 @@
       <c r="D294" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E294" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>3067</v>
       </c>
@@ -4447,8 +5342,11 @@
       <c r="D295" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E295" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>3068</v>
       </c>
@@ -4461,8 +5359,11 @@
       <c r="D296" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E296" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>3069</v>
       </c>
@@ -4475,8 +5376,11 @@
       <c r="D297" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E297" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>3070</v>
       </c>
@@ -4489,8 +5393,11 @@
       <c r="D298" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E298" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>3071</v>
       </c>
@@ -4503,8 +5410,11 @@
       <c r="D299" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E299" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>3073</v>
       </c>
@@ -4517,8 +5427,11 @@
       <c r="D300" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E300" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>3074</v>
       </c>
@@ -4531,8 +5444,11 @@
       <c r="D301" s="2">
         <v>29</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E301" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>3075</v>
       </c>
@@ -4545,8 +5461,11 @@
       <c r="D302" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E302" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>3076</v>
       </c>
@@ -4559,8 +5478,11 @@
       <c r="D303" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E303" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>3077</v>
       </c>
@@ -4573,8 +5495,11 @@
       <c r="D304" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E304" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>3080</v>
       </c>
@@ -4587,8 +5512,11 @@
       <c r="D305" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E305" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>3081</v>
       </c>
@@ -4601,8 +5529,11 @@
       <c r="D306" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E306" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>3082</v>
       </c>
@@ -4615,8 +5546,11 @@
       <c r="D307" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E307" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>3083</v>
       </c>
@@ -4629,8 +5563,11 @@
       <c r="D308" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E308" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>3084</v>
       </c>
@@ -4643,8 +5580,11 @@
       <c r="D309" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E309" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>3085</v>
       </c>
@@ -4657,8 +5597,11 @@
       <c r="D310" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E310" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>3086</v>
       </c>
@@ -4671,8 +5614,11 @@
       <c r="D311" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E311" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>3088</v>
       </c>
@@ -4685,8 +5631,11 @@
       <c r="D312" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E312" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>3090</v>
       </c>
@@ -4699,8 +5648,11 @@
       <c r="D313" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E313" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>3091</v>
       </c>
@@ -4713,8 +5665,11 @@
       <c r="D314" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E314" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>3092</v>
       </c>
@@ -4727,8 +5682,11 @@
       <c r="D315" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E315" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>3093</v>
       </c>
@@ -4741,8 +5699,11 @@
       <c r="D316" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E316" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>3094</v>
       </c>
@@ -4755,8 +5716,11 @@
       <c r="D317" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E317" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>3095</v>
       </c>
@@ -4769,8 +5733,11 @@
       <c r="D318" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E318" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>3097</v>
       </c>
@@ -4783,8 +5750,11 @@
       <c r="D319" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E319" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>3099</v>
       </c>
@@ -4797,8 +5767,11 @@
       <c r="D320" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E320" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>3102</v>
       </c>
@@ -4811,8 +5784,11 @@
       <c r="D321" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E321" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>3103</v>
       </c>
@@ -4825,8 +5801,11 @@
       <c r="D322" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E322" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>3106</v>
       </c>
@@ -4839,8 +5818,11 @@
       <c r="D323" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E323" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>3107</v>
       </c>
@@ -4853,8 +5835,11 @@
       <c r="D324" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E324" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>3108</v>
       </c>
@@ -4867,8 +5852,11 @@
       <c r="D325" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E325" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>3111</v>
       </c>
@@ -4881,8 +5869,11 @@
       <c r="D326" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E326" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>3112</v>
       </c>
@@ -4895,8 +5886,11 @@
       <c r="D327" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E327" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>3117</v>
       </c>
@@ -4909,8 +5903,11 @@
       <c r="D328" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E328" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>3118</v>
       </c>
@@ -4923,8 +5920,11 @@
       <c r="D329" s="2">
         <v>32</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E329" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>3119</v>
       </c>
@@ -4937,8 +5937,11 @@
       <c r="D330" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E330" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>3121</v>
       </c>
@@ -4951,8 +5954,11 @@
       <c r="D331" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E331" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>3122</v>
       </c>
@@ -4965,8 +5971,11 @@
       <c r="D332" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E332" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>3123</v>
       </c>
@@ -4979,8 +5988,11 @@
       <c r="D333" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E333" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>3124</v>
       </c>
@@ -4993,8 +6005,11 @@
       <c r="D334" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E334" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>3127</v>
       </c>
@@ -5007,8 +6022,11 @@
       <c r="D335" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E335" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>3128</v>
       </c>
@@ -5021,8 +6039,11 @@
       <c r="D336" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E336" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>3131</v>
       </c>
@@ -5035,8 +6056,11 @@
       <c r="D337" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E337" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>3134</v>
       </c>
@@ -5049,8 +6073,11 @@
       <c r="D338" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E338" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>3135</v>
       </c>
@@ -5063,8 +6090,11 @@
       <c r="D339" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E339" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>3138</v>
       </c>
@@ -5077,8 +6107,11 @@
       <c r="D340" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E340" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>3144</v>
       </c>
@@ -5091,8 +6124,11 @@
       <c r="D341" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E341" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>4164</v>
       </c>
@@ -5105,8 +6141,11 @@
       <c r="D342" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E342" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>4165</v>
       </c>
@@ -5119,8 +6158,11 @@
       <c r="D343" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E343" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>4167</v>
       </c>
@@ -5133,8 +6175,11 @@
       <c r="D344" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E344" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>4168</v>
       </c>
@@ -5147,8 +6192,11 @@
       <c r="D345" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E345" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>4169</v>
       </c>
@@ -5161,8 +6209,11 @@
       <c r="D346" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E346" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>4170</v>
       </c>
@@ -5175,8 +6226,11 @@
       <c r="D347" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E347" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>4171</v>
       </c>
@@ -5189,8 +6243,11 @@
       <c r="D348" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E348" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>4174</v>
       </c>
@@ -5203,8 +6260,11 @@
       <c r="D349" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E349" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>4180</v>
       </c>
@@ -5217,8 +6277,11 @@
       <c r="D350" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E350" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>4189</v>
       </c>
@@ -5231,8 +6294,11 @@
       <c r="D351" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E351" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>4194</v>
       </c>
@@ -5245,8 +6311,11 @@
       <c r="D352" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E352" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>4195</v>
       </c>
@@ -5259,8 +6328,11 @@
       <c r="D353" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E353" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>4197</v>
       </c>
@@ -5273,8 +6345,11 @@
       <c r="D354" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E354" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>4200</v>
       </c>
@@ -5287,8 +6362,11 @@
       <c r="D355" s="2">
         <v>27</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E355" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>4202</v>
       </c>
@@ -5301,8 +6379,11 @@
       <c r="D356" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E356" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>4203</v>
       </c>
@@ -5315,8 +6396,11 @@
       <c r="D357" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E357" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>4213</v>
       </c>
@@ -5329,8 +6413,11 @@
       <c r="D358" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E358" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>4214</v>
       </c>
@@ -5343,8 +6430,11 @@
       <c r="D359" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E359" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>4224</v>
       </c>
@@ -5357,8 +6447,11 @@
       <c r="D360" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E360" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>4225</v>
       </c>
@@ -5371,8 +6464,11 @@
       <c r="D361" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E361" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>4228</v>
       </c>
@@ -5385,8 +6481,11 @@
       <c r="D362" s="2">
         <v>44</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E362" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>4229</v>
       </c>
@@ -5399,8 +6498,11 @@
       <c r="D363" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E363" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>4232</v>
       </c>
@@ -5413,8 +6515,11 @@
       <c r="D364" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E364" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>4237</v>
       </c>
@@ -5427,8 +6532,11 @@
       <c r="D365" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E365" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>4238</v>
       </c>
@@ -5441,8 +6549,11 @@
       <c r="D366" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="367" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E366" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="2">
         <v>4239</v>
       </c>
@@ -5455,8 +6566,11 @@
       <c r="D367" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="368" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E367" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="2">
         <v>4264</v>
       </c>
@@ -5469,8 +6583,11 @@
       <c r="D368" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="369" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E368" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="2">
         <v>4265</v>
       </c>
@@ -5483,8 +6600,11 @@
       <c r="D369" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="370" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E369" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="2">
         <v>4268</v>
       </c>
@@ -5497,8 +6617,11 @@
       <c r="D370" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="371" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E370" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="2">
         <v>4269</v>
       </c>
@@ -5511,8 +6634,11 @@
       <c r="D371" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="372" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E371" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="2">
         <v>4270</v>
       </c>
@@ -5525,8 +6651,11 @@
       <c r="D372" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="373" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E372" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="2">
         <v>4271</v>
       </c>
@@ -5539,8 +6668,11 @@
       <c r="D373" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="374" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E373" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="2">
         <v>4272</v>
       </c>
@@ -5553,8 +6685,11 @@
       <c r="D374" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="375" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E374" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="2">
         <v>4273</v>
       </c>
@@ -5567,8 +6702,11 @@
       <c r="D375" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="376" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E375" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="2">
         <v>4274</v>
       </c>
@@ -5581,8 +6719,11 @@
       <c r="D376" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="377" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E376" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="2">
         <v>4275</v>
       </c>
@@ -5595,8 +6736,11 @@
       <c r="D377" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="378" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E377" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="2">
         <v>4276</v>
       </c>
@@ -5609,8 +6753,11 @@
       <c r="D378" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="379" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E378" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="2">
         <v>4279</v>
       </c>
@@ -5623,8 +6770,11 @@
       <c r="D379" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="380" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E379" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="2">
         <v>4295</v>
       </c>
@@ -5637,8 +6787,11 @@
       <c r="D380" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="381" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E380" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="2">
         <v>4296</v>
       </c>
@@ -5651,8 +6804,11 @@
       <c r="D381" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="382" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E381" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="2">
         <v>4298</v>
       </c>
@@ -5665,8 +6821,11 @@
       <c r="D382" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="383" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E382" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="2">
         <v>4301</v>
       </c>
@@ -5679,8 +6838,11 @@
       <c r="D383" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="384" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E383" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="2">
         <v>4314</v>
       </c>
@@ -5693,8 +6855,11 @@
       <c r="D384" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="385" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E384" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="2">
         <v>4315</v>
       </c>
@@ -5707,8 +6872,11 @@
       <c r="D385" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="386" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E385" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="2">
         <v>4317</v>
       </c>
@@ -5721,8 +6889,11 @@
       <c r="D386" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="387" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E386" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="2">
         <v>4319</v>
       </c>
@@ -5735,8 +6906,11 @@
       <c r="D387" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="388" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E387" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="2">
         <v>4320</v>
       </c>
@@ -5749,8 +6923,11 @@
       <c r="D388" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="389" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E388" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="2">
         <v>4321</v>
       </c>
@@ -5763,8 +6940,11 @@
       <c r="D389" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="390" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E389" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="2">
         <v>4322</v>
       </c>
@@ -5777,8 +6957,11 @@
       <c r="D390" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="391" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E390" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="2">
         <v>4324</v>
       </c>
@@ -5791,8 +6974,11 @@
       <c r="D391" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="392" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E391" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="2">
         <v>4333</v>
       </c>
@@ -5805,8 +6991,11 @@
       <c r="D392" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="393" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E392" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="2">
         <v>4334</v>
       </c>
@@ -5819,8 +7008,11 @@
       <c r="D393" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="394" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E393" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="2">
         <v>4336</v>
       </c>
@@ -5833,8 +7025,11 @@
       <c r="D394" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="395" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E394" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="2">
         <v>4337</v>
       </c>
@@ -5847,8 +7042,11 @@
       <c r="D395" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="396" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E395" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="2">
         <v>4342</v>
       </c>
@@ -5861,8 +7059,11 @@
       <c r="D396" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="397" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E396" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="2">
         <v>4343</v>
       </c>
@@ -5875,8 +7076,11 @@
       <c r="D397" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="398" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E397" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="2">
         <v>4344</v>
       </c>
@@ -5889,8 +7093,11 @@
       <c r="D398" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="399" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E398" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="2">
         <v>4345</v>
       </c>
@@ -5903,8 +7110,11 @@
       <c r="D399" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="400" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E399" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="400" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="2">
         <v>4347</v>
       </c>
@@ -5917,8 +7127,11 @@
       <c r="D400" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="401" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E400" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="401" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="2">
         <v>4348</v>
       </c>
@@ -5931,8 +7144,11 @@
       <c r="D401" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="402" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E401" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="402" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="2">
         <v>4349</v>
       </c>
@@ -5945,8 +7161,11 @@
       <c r="D402" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="403" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E402" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="403" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="2">
         <v>4350</v>
       </c>
@@ -5959,8 +7178,11 @@
       <c r="D403" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="404" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E403" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="404" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="2">
         <v>4351</v>
       </c>
@@ -5973,8 +7195,11 @@
       <c r="D404" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="405" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E404" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="405" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="2">
         <v>4352</v>
       </c>
@@ -5987,8 +7212,11 @@
       <c r="D405" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="406" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E405" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="406" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A406" s="2">
         <v>4354</v>
       </c>
@@ -6001,8 +7229,11 @@
       <c r="D406" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="407" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E406" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="407" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A407" s="2">
         <v>4358</v>
       </c>
@@ -6015,8 +7246,11 @@
       <c r="D407" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="408" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E407" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="408" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A408" s="2">
         <v>4359</v>
       </c>
@@ -6029,8 +7263,11 @@
       <c r="D408" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="409" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E408" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="409" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A409" s="2">
         <v>4360</v>
       </c>
@@ -6043,8 +7280,11 @@
       <c r="D409" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="410" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E409" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="410" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A410" s="2">
         <v>4363</v>
       </c>
@@ -6057,8 +7297,11 @@
       <c r="D410" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="411" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E410" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="411" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="2">
         <v>4364</v>
       </c>
@@ -6071,8 +7314,11 @@
       <c r="D411" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="412" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E411" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="412" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="2">
         <v>4365</v>
       </c>
@@ -6085,8 +7331,11 @@
       <c r="D412" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="413" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E412" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="2">
         <v>4366</v>
       </c>
@@ -6099,8 +7348,11 @@
       <c r="D413" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="414" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E413" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="2">
         <v>4368</v>
       </c>
@@ -6113,8 +7365,11 @@
       <c r="D414" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="415" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E414" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="2">
         <v>4369</v>
       </c>
@@ -6127,8 +7382,11 @@
       <c r="D415" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="416" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E415" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="2">
         <v>4370</v>
       </c>
@@ -6141,8 +7399,11 @@
       <c r="D416" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="417" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E416" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="2">
         <v>4371</v>
       </c>
@@ -6155,8 +7416,11 @@
       <c r="D417" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="418" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E417" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="2">
         <v>4375</v>
       </c>
@@ -6169,8 +7433,11 @@
       <c r="D418" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="419" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E418" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="2">
         <v>4376</v>
       </c>
@@ -6183,8 +7450,11 @@
       <c r="D419" s="2">
         <v>24</v>
       </c>
-    </row>
-    <row r="420" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E419" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="2">
         <v>4385</v>
       </c>
@@ -6197,8 +7467,11 @@
       <c r="D420" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="421" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E420" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="2">
         <v>4386</v>
       </c>
@@ -6211,8 +7484,11 @@
       <c r="D421" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="422" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E421" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="2">
         <v>4387</v>
       </c>
@@ -6225,8 +7501,11 @@
       <c r="D422" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="423" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E422" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="2">
         <v>4388</v>
       </c>
@@ -6239,8 +7518,11 @@
       <c r="D423" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="424" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E423" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="2">
         <v>4389</v>
       </c>
@@ -6253,8 +7535,11 @@
       <c r="D424" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="425" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E424" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="2">
         <v>4390</v>
       </c>
@@ -6267,8 +7552,11 @@
       <c r="D425" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="426" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E425" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="2">
         <v>4393</v>
       </c>
@@ -6281,8 +7569,11 @@
       <c r="D426" s="2">
         <v>49</v>
       </c>
-    </row>
-    <row r="427" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E426" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="2">
         <v>4394</v>
       </c>
@@ -6295,8 +7586,11 @@
       <c r="D427" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="428" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E427" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="2">
         <v>4400</v>
       </c>
@@ -6309,8 +7603,11 @@
       <c r="D428" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="429" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E428" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="2">
         <v>4404</v>
       </c>
@@ -6323,8 +7620,11 @@
       <c r="D429" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="430" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E429" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="2">
         <v>4405</v>
       </c>
@@ -6337,8 +7637,11 @@
       <c r="D430" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="431" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E430" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="2">
         <v>4406</v>
       </c>
@@ -6351,8 +7654,11 @@
       <c r="D431" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="432" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E431" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="2">
         <v>4407</v>
       </c>
@@ -6365,8 +7671,11 @@
       <c r="D432" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="433" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E432" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="2">
         <v>4408</v>
       </c>
@@ -6379,8 +7688,11 @@
       <c r="D433" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="434" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E433" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="2">
         <v>4409</v>
       </c>
@@ -6393,8 +7705,11 @@
       <c r="D434" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="435" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E434" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="2">
         <v>4410</v>
       </c>
@@ -6407,8 +7722,11 @@
       <c r="D435" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="436" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E435" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="2">
         <v>4411</v>
       </c>
@@ -6421,8 +7739,11 @@
       <c r="D436" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="437" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E436" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="2">
         <v>4412</v>
       </c>
@@ -6435,8 +7756,11 @@
       <c r="D437" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="438" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E437" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="2">
         <v>4413</v>
       </c>
@@ -6449,8 +7773,11 @@
       <c r="D438" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="439" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E438" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="2">
         <v>4414</v>
       </c>
@@ -6463,8 +7790,11 @@
       <c r="D439" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="440" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E439" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="2">
         <v>4415</v>
       </c>
@@ -6477,8 +7807,11 @@
       <c r="D440" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="441" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E440" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="2">
         <v>4416</v>
       </c>
@@ -6491,8 +7824,11 @@
       <c r="D441" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="442" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E441" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="2">
         <v>4421</v>
       </c>
@@ -6505,8 +7841,11 @@
       <c r="D442" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="443" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E442" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="2">
         <v>4431</v>
       </c>
@@ -6519,8 +7858,11 @@
       <c r="D443" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="444" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E443" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="2">
         <v>4432</v>
       </c>
@@ -6533,8 +7875,11 @@
       <c r="D444" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="445" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E444" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="2">
         <v>4434</v>
       </c>
@@ -6547,8 +7892,11 @@
       <c r="D445" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="446" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E445" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="2">
         <v>4435</v>
       </c>
@@ -6561,8 +7909,11 @@
       <c r="D446" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="447" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E446" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="2">
         <v>4436</v>
       </c>
@@ -6575,8 +7926,11 @@
       <c r="D447" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="448" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E447" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="2">
         <v>4437</v>
       </c>
@@ -6589,8 +7943,11 @@
       <c r="D448" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="449" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E448" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="2">
         <v>4454</v>
       </c>
@@ -6603,8 +7960,11 @@
       <c r="D449" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="450" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E449" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="2">
         <v>4459</v>
       </c>
@@ -6617,8 +7977,11 @@
       <c r="D450" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="451" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E450" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="2">
         <v>4475</v>
       </c>
@@ -6631,8 +7994,11 @@
       <c r="D451" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="452" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E451" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="2">
         <v>4476</v>
       </c>
@@ -6645,8 +8011,11 @@
       <c r="D452" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="453" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E452" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="2">
         <v>4483</v>
       </c>
@@ -6659,8 +8028,11 @@
       <c r="D453" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="454" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E453" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="2">
         <v>4485</v>
       </c>
@@ -6673,8 +8045,11 @@
       <c r="D454" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="455" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E454" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="2">
         <v>4486</v>
       </c>
@@ -6687,8 +8062,11 @@
       <c r="D455" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="456" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E455" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="2">
         <v>4487</v>
       </c>
@@ -6701,8 +8079,11 @@
       <c r="D456" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="457" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E456" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="2">
         <v>4488</v>
       </c>
@@ -6715,8 +8096,11 @@
       <c r="D457" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="458" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E457" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="2">
         <v>4489</v>
       </c>
@@ -6729,8 +8113,11 @@
       <c r="D458" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="459" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E458" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="2">
         <v>4490</v>
       </c>
@@ -6743,8 +8130,11 @@
       <c r="D459" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="460" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E459" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="2">
         <v>4492</v>
       </c>
@@ -6757,8 +8147,11 @@
       <c r="D460" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="461" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E460" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="2">
         <v>4498</v>
       </c>
@@ -6771,8 +8164,11 @@
       <c r="D461" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="462" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E461" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="2">
         <v>4499</v>
       </c>
@@ -6785,8 +8181,11 @@
       <c r="D462" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="463" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E462" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="2">
         <v>4501</v>
       </c>
@@ -6799,8 +8198,11 @@
       <c r="D463" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="464" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E463" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="2">
         <v>4502</v>
       </c>
@@ -6813,8 +8215,11 @@
       <c r="D464" s="2">
         <v>105</v>
       </c>
-    </row>
-    <row r="465" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E464" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="2">
         <v>4503</v>
       </c>
@@ -6827,8 +8232,11 @@
       <c r="D465" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="466" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E465" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="2">
         <v>4504</v>
       </c>
@@ -6841,8 +8249,11 @@
       <c r="D466" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="467" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E466" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="2">
         <v>4506</v>
       </c>
@@ -6855,8 +8266,11 @@
       <c r="D467" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="468" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E467" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="2">
         <v>4507</v>
       </c>
@@ -6869,8 +8283,11 @@
       <c r="D468" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="469" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E468" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="2">
         <v>4508</v>
       </c>
@@ -6883,8 +8300,11 @@
       <c r="D469" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="470" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E469" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="2">
         <v>4509</v>
       </c>
@@ -6897,8 +8317,11 @@
       <c r="D470" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="471" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E470" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="2">
         <v>4510</v>
       </c>
@@ -6911,8 +8334,11 @@
       <c r="D471" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="472" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E471" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="2">
         <v>4511</v>
       </c>
@@ -6925,8 +8351,11 @@
       <c r="D472" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="473" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E472" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="2">
         <v>4512</v>
       </c>
@@ -6939,8 +8368,11 @@
       <c r="D473" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="474" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E473" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="2">
         <v>4513</v>
       </c>
@@ -6953,8 +8385,11 @@
       <c r="D474" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="475" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E474" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="2">
         <v>4514</v>
       </c>
@@ -6967,8 +8402,11 @@
       <c r="D475" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="476" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E475" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="2">
         <v>4515</v>
       </c>
@@ -6981,8 +8419,11 @@
       <c r="D476" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="477" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E476" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="2">
         <v>4516</v>
       </c>
@@ -6995,8 +8436,11 @@
       <c r="D477" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="478" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E477" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="2">
         <v>4517</v>
       </c>
@@ -7009,8 +8453,11 @@
       <c r="D478" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="479" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E478" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="2">
         <v>4518</v>
       </c>
@@ -7023,8 +8470,11 @@
       <c r="D479" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="480" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E479" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="2">
         <v>4519</v>
       </c>
@@ -7037,8 +8487,11 @@
       <c r="D480" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="481" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E480" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="2">
         <v>4520</v>
       </c>
@@ -7051,8 +8504,11 @@
       <c r="D481" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="482" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E481" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="482" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="2">
         <v>4522</v>
       </c>
@@ -7065,8 +8521,11 @@
       <c r="D482" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="483" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E482" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="483" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="2">
         <v>4523</v>
       </c>
@@ -7079,8 +8538,11 @@
       <c r="D483" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="484" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E483" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="484" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="2">
         <v>4524</v>
       </c>
@@ -7093,8 +8555,11 @@
       <c r="D484" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="485" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E484" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="485" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="2">
         <v>4525</v>
       </c>
@@ -7107,8 +8572,11 @@
       <c r="D485" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="486" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E485" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="486" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="2">
         <v>4526</v>
       </c>
@@ -7121,8 +8589,11 @@
       <c r="D486" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="487" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E486" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="487" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A487" s="2">
         <v>4527</v>
       </c>
@@ -7135,8 +8606,11 @@
       <c r="D487" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="488" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E487" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="488" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A488" s="2">
         <v>4528</v>
       </c>
@@ -7149,8 +8623,11 @@
       <c r="D488" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="489" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E488" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="489" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A489" s="2">
         <v>4529</v>
       </c>
@@ -7163,8 +8640,11 @@
       <c r="D489" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="490" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E489" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="490" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A490" s="2">
         <v>4530</v>
       </c>
@@ -7177,8 +8657,11 @@
       <c r="D490" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="491" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E490" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="491" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A491" s="2">
         <v>4531</v>
       </c>
@@ -7191,8 +8674,11 @@
       <c r="D491" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="492" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E491" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="492" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A492" s="2">
         <v>4533</v>
       </c>
@@ -7205,8 +8691,11 @@
       <c r="D492" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="493" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E492" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="493" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A493" s="2">
         <v>4534</v>
       </c>
@@ -7219,8 +8708,11 @@
       <c r="D493" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="494" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E493" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="494" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A494" s="2">
         <v>4536</v>
       </c>
@@ -7233,8 +8725,11 @@
       <c r="D494" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="495" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E494" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="495" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A495" s="2">
         <v>4543</v>
       </c>
@@ -7247,8 +8742,11 @@
       <c r="D495" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="496" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E495" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="496" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A496" s="2">
         <v>4544</v>
       </c>
@@ -7261,8 +8759,11 @@
       <c r="D496" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="497" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E496" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="497" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A497" s="2">
         <v>4546</v>
       </c>
@@ -7275,8 +8776,11 @@
       <c r="D497" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="498" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E497" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="498" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A498" s="2">
         <v>4547</v>
       </c>
@@ -7289,8 +8793,11 @@
       <c r="D498" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="499" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E498" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="499" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A499" s="2">
         <v>4548</v>
       </c>
@@ -7303,8 +8810,11 @@
       <c r="D499" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="500" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E499" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="500" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A500" s="2">
         <v>4549</v>
       </c>
@@ -7317,8 +8827,11 @@
       <c r="D500" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="501" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E500" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="501" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A501" s="2">
         <v>4551</v>
       </c>
@@ -7331,8 +8844,11 @@
       <c r="D501" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="502" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E501" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="502" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A502" s="2">
         <v>4552</v>
       </c>
@@ -7345,8 +8861,11 @@
       <c r="D502" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="503" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E502" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="503" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A503" s="2">
         <v>4563</v>
       </c>
@@ -7359,8 +8878,11 @@
       <c r="D503" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="504" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E503" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="504" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A504" s="2">
         <v>4564</v>
       </c>
@@ -7373,8 +8895,11 @@
       <c r="D504" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="505" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E504" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="505" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A505" s="2">
         <v>4565</v>
       </c>
@@ -7387,8 +8912,11 @@
       <c r="D505" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="506" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E505" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="506" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A506" s="2">
         <v>4566</v>
       </c>
@@ -7401,8 +8929,11 @@
       <c r="D506" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="507" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E506" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="507" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A507" s="2">
         <v>4567</v>
       </c>
@@ -7415,8 +8946,11 @@
       <c r="D507" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="508" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E507" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="508" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A508" s="2">
         <v>4568</v>
       </c>
@@ -7429,8 +8963,11 @@
       <c r="D508" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="509" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E508" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="509" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A509" s="2">
         <v>4569</v>
       </c>
@@ -7443,8 +8980,11 @@
       <c r="D509" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="510" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E509" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="510" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A510" s="2">
         <v>4571</v>
       </c>
@@ -7457,8 +8997,11 @@
       <c r="D510" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="511" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E510" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="511" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A511" s="2">
         <v>4572</v>
       </c>
@@ -7471,8 +9014,11 @@
       <c r="D511" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="512" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E511" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="512" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A512" s="2">
         <v>4574</v>
       </c>
@@ -7485,8 +9031,11 @@
       <c r="D512" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="513" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E512" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="513" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A513" s="2">
         <v>4575</v>
       </c>
@@ -7499,8 +9048,11 @@
       <c r="D513" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="514" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E513" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="514" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A514" s="2">
         <v>4576</v>
       </c>
@@ -7513,8 +9065,11 @@
       <c r="D514" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="515" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E514" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="515" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A515" s="2">
         <v>4577</v>
       </c>
@@ -7527,8 +9082,11 @@
       <c r="D515" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="516" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E515" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="516" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A516" s="2">
         <v>4578</v>
       </c>
@@ -7541,8 +9099,11 @@
       <c r="D516" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="517" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E516" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="517" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A517" s="2">
         <v>4583</v>
       </c>
@@ -7555,8 +9116,11 @@
       <c r="D517" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="518" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E517" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="518" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A518" s="2">
         <v>4584</v>
       </c>
@@ -7569,8 +9133,11 @@
       <c r="D518" s="2">
         <v>28</v>
       </c>
-    </row>
-    <row r="519" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E518" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="519" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A519" s="2">
         <v>4585</v>
       </c>
@@ -7583,8 +9150,11 @@
       <c r="D519" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="520" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E519" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="520" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A520" s="2">
         <v>4586</v>
       </c>
@@ -7597,8 +9167,11 @@
       <c r="D520" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="521" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E520" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="521" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A521" s="2">
         <v>4587</v>
       </c>
@@ -7611,8 +9184,11 @@
       <c r="D521" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="522" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E521" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="522" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A522" s="2">
         <v>4588</v>
       </c>
@@ -7625,8 +9201,11 @@
       <c r="D522" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="523" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E522" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="523" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A523" s="2">
         <v>4590</v>
       </c>
@@ -7639,8 +9218,11 @@
       <c r="D523" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="524" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E523" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="524" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A524" s="2">
         <v>4591</v>
       </c>
@@ -7653,8 +9235,11 @@
       <c r="D524" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="525" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E524" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="525" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A525" s="2">
         <v>4593</v>
       </c>
@@ -7667,8 +9252,11 @@
       <c r="D525" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="526" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E525" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="526" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A526" s="2">
         <v>4594</v>
       </c>
@@ -7681,8 +9269,11 @@
       <c r="D526" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="527" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E526" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="527" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A527" s="2">
         <v>4595</v>
       </c>
@@ -7695,8 +9286,11 @@
       <c r="D527" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="528" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E527" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="528" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A528" s="2">
         <v>4596</v>
       </c>
@@ -7709,8 +9303,11 @@
       <c r="D528" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="529" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E528" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="529" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A529" s="2">
         <v>4599</v>
       </c>
@@ -7723,8 +9320,11 @@
       <c r="D529" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="530" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E529" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="530" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A530" s="2">
         <v>4600</v>
       </c>
@@ -7737,8 +9337,11 @@
       <c r="D530" s="2">
         <v>75</v>
       </c>
-    </row>
-    <row r="531" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E530" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="531" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A531" s="2">
         <v>4601</v>
       </c>
@@ -7751,8 +9354,11 @@
       <c r="D531" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="532" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E531" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="532" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A532" s="2">
         <v>4602</v>
       </c>
@@ -7765,8 +9371,11 @@
       <c r="D532" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="533" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E532" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="533" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A533" s="2">
         <v>4617</v>
       </c>
@@ -7779,8 +9388,11 @@
       <c r="D533" s="2">
         <v>34</v>
       </c>
-    </row>
-    <row r="534" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E533" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="534" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A534" s="2">
         <v>4618</v>
       </c>
@@ -7793,8 +9405,11 @@
       <c r="D534" s="2">
         <v>33</v>
       </c>
-    </row>
-    <row r="535" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E534" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="535" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A535" s="2">
         <v>4619</v>
       </c>
@@ -7807,8 +9422,11 @@
       <c r="D535" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="536" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E535" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="536" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A536" s="2">
         <v>4620</v>
       </c>
@@ -7821,8 +9439,11 @@
       <c r="D536" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="537" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E536" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="537" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A537" s="2">
         <v>4623</v>
       </c>
@@ -7835,8 +9456,11 @@
       <c r="D537" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="538" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E537" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="538" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A538" s="2">
         <v>4624</v>
       </c>
@@ -7849,8 +9473,11 @@
       <c r="D538" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="539" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E538" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="539" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A539" s="2">
         <v>4625</v>
       </c>
@@ -7863,8 +9490,11 @@
       <c r="D539" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="540" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E539" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="540" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A540" s="2">
         <v>4626</v>
       </c>
@@ -7877,8 +9507,11 @@
       <c r="D540" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="541" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E540" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="541" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A541" s="2">
         <v>4627</v>
       </c>
@@ -7891,8 +9524,11 @@
       <c r="D541" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="542" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E541" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="542" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A542" s="2">
         <v>4628</v>
       </c>
@@ -7905,8 +9541,11 @@
       <c r="D542" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="543" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E542" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="543" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A543" s="2">
         <v>4629</v>
       </c>
@@ -7919,8 +9558,11 @@
       <c r="D543" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="544" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E543" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="544" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A544" s="2">
         <v>4630</v>
       </c>
@@ -7933,8 +9575,11 @@
       <c r="D544" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="545" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E544" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="545" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A545" s="2">
         <v>4631</v>
       </c>
@@ -7947,8 +9592,11 @@
       <c r="D545" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="546" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E545" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="546" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A546" s="2">
         <v>4634</v>
       </c>
@@ -7961,8 +9609,11 @@
       <c r="D546" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="547" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E546" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="547" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A547" s="2">
         <v>4636</v>
       </c>
@@ -7975,8 +9626,11 @@
       <c r="D547" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="548" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E547" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="548" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A548" s="2">
         <v>4637</v>
       </c>
@@ -7989,8 +9643,11 @@
       <c r="D548" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="549" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E548" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="549" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A549" s="2">
         <v>4638</v>
       </c>
@@ -8003,8 +9660,11 @@
       <c r="D549" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="550" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E549" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="550" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A550" s="2">
         <v>4639</v>
       </c>
@@ -8017,8 +9677,11 @@
       <c r="D550" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="551" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E550" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="551" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A551" s="2">
         <v>4641</v>
       </c>
@@ -8031,8 +9694,11 @@
       <c r="D551" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="552" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E551" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="552" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A552" s="2">
         <v>4642</v>
       </c>
@@ -8045,8 +9711,11 @@
       <c r="D552" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="553" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E552" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="553" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A553" s="2">
         <v>4643</v>
       </c>
@@ -8059,8 +9728,11 @@
       <c r="D553" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="554" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E553" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="554" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A554" s="2">
         <v>4645</v>
       </c>
@@ -8073,8 +9745,11 @@
       <c r="D554" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="555" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E554" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="555" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A555" s="2">
         <v>4647</v>
       </c>
@@ -8087,8 +9762,11 @@
       <c r="D555" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="556" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E555" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="556" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A556" s="2">
         <v>4648</v>
       </c>
@@ -8101,8 +9779,11 @@
       <c r="D556" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="557" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E556" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="557" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A557" s="2">
         <v>4649</v>
       </c>
@@ -8115,8 +9796,11 @@
       <c r="D557" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="558" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E557" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="558" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A558" s="2">
         <v>4650</v>
       </c>
@@ -8129,8 +9813,11 @@
       <c r="D558" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="559" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E558" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="559" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A559" s="2">
         <v>4651</v>
       </c>
@@ -8143,8 +9830,11 @@
       <c r="D559" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="560" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E559" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="560" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A560" s="2">
         <v>4652</v>
       </c>
@@ -8157,8 +9847,11 @@
       <c r="D560" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="561" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E560" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="561" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A561" s="2">
         <v>4654</v>
       </c>
@@ -8171,8 +9864,11 @@
       <c r="D561" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="562" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E561" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="562" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A562" s="2">
         <v>4655</v>
       </c>
@@ -8185,8 +9881,11 @@
       <c r="D562" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="563" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E562" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="563" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A563" s="2">
         <v>4656</v>
       </c>
@@ -8199,8 +9898,11 @@
       <c r="D563" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="564" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E563" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="564" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A564" s="2">
         <v>4657</v>
       </c>
@@ -8213,8 +9915,11 @@
       <c r="D564" s="2">
         <v>43</v>
       </c>
-    </row>
-    <row r="565" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E564" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="565" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A565" s="2">
         <v>4658</v>
       </c>
@@ -8227,8 +9932,11 @@
       <c r="D565" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="566" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E565" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="566" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A566" s="2">
         <v>4664</v>
       </c>
@@ -8241,8 +9949,11 @@
       <c r="D566" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="567" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E566" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="567" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A567" s="2">
         <v>4665</v>
       </c>
@@ -8255,8 +9966,11 @@
       <c r="D567" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="568" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E567" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="568" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A568" s="2">
         <v>4668</v>
       </c>
@@ -8269,8 +9983,11 @@
       <c r="D568" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="569" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E568" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="569" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A569" s="2">
         <v>4669</v>
       </c>
@@ -8283,8 +10000,11 @@
       <c r="D569" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="570" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E569" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="570" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A570" s="2">
         <v>4673</v>
       </c>
@@ -8297,8 +10017,11 @@
       <c r="D570" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="571" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E570" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="571" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A571" s="2">
         <v>4676</v>
       </c>
@@ -8311,8 +10034,11 @@
       <c r="D571" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="572" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E571" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="572" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A572" s="2">
         <v>4678</v>
       </c>
@@ -8325,8 +10051,11 @@
       <c r="D572" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="573" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E572" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="573" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A573" s="2">
         <v>4679</v>
       </c>
@@ -8339,8 +10068,11 @@
       <c r="D573" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="574" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E573" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="574" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A574" s="2">
         <v>4684</v>
       </c>
@@ -8353,8 +10085,11 @@
       <c r="D574" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="575" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E574" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="575" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A575" s="2">
         <v>4685</v>
       </c>
@@ -8367,8 +10102,11 @@
       <c r="D575" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="576" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E575" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="576" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A576" s="2">
         <v>4693</v>
       </c>
@@ -8381,8 +10119,11 @@
       <c r="D576" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="577" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E576" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="577" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A577" s="2">
         <v>4694</v>
       </c>
@@ -8395,8 +10136,11 @@
       <c r="D577" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="578" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E577" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="578" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A578" s="2">
         <v>4695</v>
       </c>
@@ -8409,8 +10153,11 @@
       <c r="D578" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="579" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E578" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="579" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A579" s="2">
         <v>4696</v>
       </c>
@@ -8423,8 +10170,11 @@
       <c r="D579" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="580" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E579" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="580" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A580" s="2">
         <v>4699</v>
       </c>
@@ -8437,8 +10187,11 @@
       <c r="D580" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="581" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E580" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="581" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A581" s="2">
         <v>4700</v>
       </c>
@@ -8451,8 +10204,11 @@
       <c r="D581" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="582" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E581" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="582" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A582" s="2">
         <v>4703</v>
       </c>
@@ -8465,8 +10221,11 @@
       <c r="D582" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="583" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E582" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="583" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A583" s="2">
         <v>4704</v>
       </c>
@@ -8479,8 +10238,11 @@
       <c r="D583" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="584" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E583" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="584" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A584" s="2">
         <v>4705</v>
       </c>
@@ -8493,8 +10255,11 @@
       <c r="D584" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="585" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E584" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="585" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A585" s="2">
         <v>4706</v>
       </c>
@@ -8507,8 +10272,11 @@
       <c r="D585" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="586" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E585" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="586" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A586" s="2">
         <v>4723</v>
       </c>
@@ -8521,8 +10289,11 @@
       <c r="D586" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="587" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E586" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="587" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A587" s="2">
         <v>4725</v>
       </c>
@@ -8535,8 +10306,11 @@
       <c r="D587" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="588" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E587" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="588" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A588" s="2">
         <v>4726</v>
       </c>
@@ -8549,8 +10323,11 @@
       <c r="D588" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="589" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E588" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="589" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A589" s="2">
         <v>4730</v>
       </c>
@@ -8563,8 +10340,11 @@
       <c r="D589" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="590" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E589" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="590" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A590" s="2">
         <v>4763</v>
       </c>
@@ -8577,8 +10357,11 @@
       <c r="D590" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="591" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E590" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="591" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A591" s="2">
         <v>4764</v>
       </c>
@@ -8591,8 +10374,11 @@
       <c r="D591" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="592" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E591" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="592" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A592" s="2">
         <v>4765</v>
       </c>
@@ -8605,8 +10391,11 @@
       <c r="D592" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="593" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E592" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="593" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A593" s="2">
         <v>4768</v>
       </c>
@@ -8619,8 +10408,11 @@
       <c r="D593" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="594" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E593" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="594" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A594" s="2">
         <v>4784</v>
       </c>
@@ -8633,8 +10425,11 @@
       <c r="D594" s="2">
         <v>120</v>
       </c>
-    </row>
-    <row r="595" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E594" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="595" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A595" s="2">
         <v>4791</v>
       </c>
@@ -8647,8 +10442,11 @@
       <c r="D595" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="596" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E595" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="596" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A596" s="2">
         <v>4837</v>
       </c>
@@ -8661,8 +10459,11 @@
       <c r="D596" s="2">
         <v>70</v>
       </c>
-    </row>
-    <row r="597" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E596" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="597" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A597" s="2">
         <v>4838</v>
       </c>
@@ -8675,8 +10476,11 @@
       <c r="D597" s="2">
         <v>61</v>
       </c>
-    </row>
-    <row r="598" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E597" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="598" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A598" s="2">
         <v>5093</v>
       </c>
@@ -8689,8 +10493,11 @@
       <c r="D598" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="599" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E598" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="599" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A599" s="2">
         <v>5094</v>
       </c>
@@ -8703,8 +10510,11 @@
       <c r="D599" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="600" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E599" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="600" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A600" s="2">
         <v>5123</v>
       </c>
@@ -8717,8 +10527,11 @@
       <c r="D600" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="601" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E600" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="601" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A601" s="2">
         <v>5124</v>
       </c>
@@ -8731,8 +10544,11 @@
       <c r="D601" s="2">
         <v>38</v>
       </c>
-    </row>
-    <row r="602" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E601" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="602" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A602" s="2">
         <v>5125</v>
       </c>
@@ -8745,8 +10561,11 @@
       <c r="D602" s="2">
         <v>30</v>
       </c>
-    </row>
-    <row r="603" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E602" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="603" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A603" s="2">
         <v>5126</v>
       </c>
@@ -8759,8 +10578,11 @@
       <c r="D603" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="604" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E603" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="604" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A604" s="2">
         <v>5127</v>
       </c>
@@ -8773,8 +10595,11 @@
       <c r="D604" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="605" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E604" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="605" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A605" s="2">
         <v>5128</v>
       </c>
@@ -8787,8 +10612,11 @@
       <c r="D605" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="606" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E605" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="606" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A606" s="2">
         <v>5163</v>
       </c>
@@ -8801,8 +10629,11 @@
       <c r="D606" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="607" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E606" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="607" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A607" s="2">
         <v>5164</v>
       </c>
@@ -8815,8 +10646,11 @@
       <c r="D607" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="608" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E607" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="608" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A608" s="2">
         <v>5165</v>
       </c>
@@ -8829,8 +10663,11 @@
       <c r="D608" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="609" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E608" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="609" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A609" s="2">
         <v>5166</v>
       </c>
@@ -8843,400 +10680,403 @@
       <c r="D609" s="2">
         <v>0</v>
       </c>
-    </row>
-    <row r="610" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="611" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="612" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="613" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="614" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="615" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="616" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="617" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="618" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="619" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="620" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="621" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="622" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="623" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="624" spans="1:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+      <c r="E609" s="3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="610" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="611" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="612" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="613" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="614" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="615" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="616" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="617" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="618" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="619" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="620" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="621" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="622" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="623" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="624" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="625" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="626" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="627" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="628" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="629" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="630" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="631" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="632" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="633" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="634" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="635" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="636" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="637" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="638" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="639" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="640" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="641" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="642" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="643" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="644" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="645" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="646" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="647" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="648" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="649" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="650" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="651" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="652" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="653" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="654" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="655" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="656" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="657" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="658" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="659" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="660" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="661" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="662" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="663" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="664" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="665" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="666" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="667" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="668" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="669" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="670" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="671" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="672" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="673" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="674" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="675" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="676" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="677" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="678" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="679" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="680" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="681" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="682" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="683" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="684" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="685" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="686" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="687" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="688" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="689" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="690" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="691" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="692" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="693" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="694" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="695" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="696" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="697" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="698" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="699" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="700" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="701" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="702" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="703" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="704" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="705" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="706" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="707" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="708" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="709" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="710" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="711" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="712" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="713" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="714" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="715" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="716" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="717" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="718" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="719" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="720" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="721" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="722" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="723" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="724" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="725" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="726" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="727" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="728" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="729" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="730" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="731" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="732" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="733" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="734" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="735" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="736" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="737" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="738" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="739" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="740" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="741" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="742" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="743" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="744" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="745" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="746" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="747" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="748" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="749" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="750" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="751" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="752" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="753" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="754" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="755" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="756" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="757" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="758" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="759" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="760" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="761" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="762" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="763" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="764" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="765" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="766" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="767" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="768" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="769" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="770" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="771" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="772" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="773" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="774" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="775" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="776" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="777" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="778" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="779" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="780" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="781" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="782" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="783" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="784" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="785" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="786" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="787" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="788" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="789" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="790" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="791" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="792" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="793" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="794" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="795" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="796" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="797" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="798" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="799" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="800" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="801" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="802" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="803" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="804" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="805" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="806" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="807" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="808" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="809" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="810" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="811" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="812" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="813" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="814" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="815" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="816" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="817" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="818" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="819" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="820" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="821" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="822" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="823" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="824" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="825" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="826" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="827" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="828" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="829" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="830" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="831" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="832" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="833" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="834" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="835" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="836" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="837" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="838" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="839" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="840" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="841" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="842" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="843" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="844" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="845" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="846" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="847" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="848" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="849" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="850" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="851" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="852" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="853" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="854" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="855" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="856" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="857" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="858" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="859" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="860" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="861" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="862" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="863" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="864" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="865" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="866" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="867" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="868" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="869" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="870" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="871" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="872" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="873" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="874" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="875" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="876" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="877" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="878" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="879" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="880" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="881" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="882" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="883" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="884" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="885" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="886" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="887" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="888" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="889" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="890" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="891" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="892" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="893" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="894" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="895" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="896" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="897" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="898" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="899" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="900" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="901" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="902" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="903" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="904" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="905" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="906" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="907" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="908" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="909" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="910" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="911" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="912" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="913" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="914" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="915" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="916" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="917" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="918" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="919" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="920" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="921" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="922" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="923" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="924" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="925" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="926" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="927" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="928" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="929" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="930" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="931" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="932" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="933" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="934" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="935" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="936" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="937" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="938" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="939" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="940" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="941" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="942" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="943" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="944" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="945" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="946" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="947" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="948" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="949" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="950" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="951" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="952" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="953" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="954" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="955" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="956" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="957" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="958" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="959" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="960" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="961" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="962" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="963" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="964" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="965" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="966" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="967" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="968" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="969" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="970" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="971" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="972" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="973" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="974" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="975" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="976" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="977" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="978" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="979" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="980" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="981" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="982" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="983" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="984" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="985" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="986" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="987" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="988" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="989" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="990" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="991" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="992" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="993" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="994" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="995" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="996" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="997" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="999" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="1000" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="landscape"/>
+  <pageSetup orientation="landscape" r:id="rId1"/>
 </worksheet>
 </file>
--- a/flights.xlsx
+++ b/flights.xlsx
@@ -8,25 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABC6FAC-BA93-4D96-9E49-566B833F9D01}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8126EEB6-78AE-4E0A-B2C2-12825F1E1059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
@@ -445,8 +434,8 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A585" workbookViewId="0">
+      <selection activeCell="E24" sqref="E2:E609"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -456,8 +445,7 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="6.109375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="16.77734375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.5546875" style="5" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" style="5"/>
+    <col min="6" max="7" width="12.5546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">

--- a/flights.xlsx
+++ b/flights.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C174B8-AA8F-4947-A23E-5CA1FEA0579C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE16486-17A8-41C7-B39A-0E6957B940B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1428" yWindow="1428" windowWidth="17280" windowHeight="8880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="flights" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1226" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="47">
   <si>
     <t>Flight Number</t>
   </si>
@@ -155,6 +155,12 @@
   </si>
   <si>
     <t>Aircraft</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>L</t>
   </si>
 </sst>
 </file>
@@ -441,10 +447,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:J1000"/>
+  <dimension ref="A1:L1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -459,7 +465,7 @@
     <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -490,8 +496,14 @@
       <c r="J1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -514,7 +526,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -537,7 +549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -560,7 +572,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -583,7 +595,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -606,7 +618,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -629,7 +641,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -652,7 +664,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -675,7 +687,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -698,7 +710,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -721,7 +733,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -744,7 +756,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -767,7 +779,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -790,7 +802,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -813,7 +825,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>

--- a/flights.xlsx
+++ b/flights.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\M.s\Thesis\GitHub\GradThesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AE16486-17A8-41C7-B39A-0E6957B940B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45125E78-0027-4361-A79E-6CE11DEF66BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1227" uniqueCount="46">
   <si>
     <t>Flight Number</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Actual Arr Time</t>
-  </si>
-  <si>
-    <t>Aircraft</t>
   </si>
   <si>
     <t>X</t>
@@ -447,10 +444,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:L1000"/>
+  <dimension ref="A1:K1000"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5546875" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -465,7 +462,7 @@
     <col min="9" max="9" width="14.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -499,11 +496,8 @@
       <c r="K1" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="L1" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>1</v>
       </c>
@@ -526,7 +520,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>2</v>
       </c>
@@ -549,7 +543,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>3</v>
       </c>
@@ -572,7 +566,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>4</v>
       </c>
@@ -595,7 +589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>5</v>
       </c>
@@ -618,7 +612,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="7" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>6</v>
       </c>
@@ -641,7 +635,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>7</v>
       </c>
@@ -664,7 +658,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>8</v>
       </c>
@@ -687,7 +681,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>9</v>
       </c>
@@ -710,7 +704,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>10</v>
       </c>
@@ -733,7 +727,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>11</v>
       </c>
@@ -756,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>12</v>
       </c>
@@ -779,7 +773,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="14" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>13</v>
       </c>
@@ -802,7 +796,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="15" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>14</v>
       </c>
@@ -825,7 +819,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="16" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>15</v>
       </c>
